--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H2">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>4.402218</v>
       </c>
       <c r="O2">
-        <v>0.8178057326420413</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P2">
-        <v>0.8654277364307374</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q2">
-        <v>1.098755949379334</v>
+        <v>0.5344502980193333</v>
       </c>
       <c r="R2">
-        <v>9.888803544413999</v>
+        <v>4.810052682174</v>
       </c>
       <c r="S2">
-        <v>0.7841674809462774</v>
+        <v>0.4148036754784936</v>
       </c>
       <c r="T2">
-        <v>0.8298306809680623</v>
+        <v>0.4344877753979351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H3">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.296209</v>
+        <v>0.2308085</v>
       </c>
       <c r="N3">
-        <v>0.592418</v>
+        <v>0.461617</v>
       </c>
       <c r="O3">
-        <v>0.1650813873325899</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P3">
-        <v>0.1164628759322743</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q3">
-        <v>0.2217936965023333</v>
+        <v>0.08406376395516667</v>
       </c>
       <c r="R3">
-        <v>1.330762179014</v>
+        <v>0.504382583731</v>
       </c>
       <c r="S3">
-        <v>0.158291205953646</v>
+        <v>0.06524452955192898</v>
       </c>
       <c r="T3">
-        <v>0.1116724869958138</v>
+        <v>0.04556042963248723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,55 +652,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7487743333333333</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H4">
-        <v>2.246323</v>
+        <v>1.183468</v>
       </c>
       <c r="I4">
-        <v>0.9588676743716499</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J4">
-        <v>0.9588676743716499</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.030706</v>
+        <v>1.467406</v>
       </c>
       <c r="N4">
-        <v>0.09211799999999999</v>
+        <v>4.402218</v>
       </c>
       <c r="O4">
-        <v>0.01711288002536893</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P4">
-        <v>0.01810938763698814</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q4">
-        <v>0.02299186467933333</v>
+        <v>0.5788760146693332</v>
       </c>
       <c r="R4">
-        <v>0.206926782114</v>
+        <v>5.209884132023999</v>
       </c>
       <c r="S4">
-        <v>0.01640898747172656</v>
+        <v>0.4492838705882724</v>
       </c>
       <c r="T4">
-        <v>0.01736450640777353</v>
+        <v>0.4706041942104087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,170 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H5">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I5">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J5">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.467406</v>
+        <v>0.2308085</v>
       </c>
       <c r="N5">
-        <v>4.402218</v>
+        <v>0.461617</v>
       </c>
       <c r="O5">
-        <v>0.8178057326420413</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P5">
-        <v>0.8654277364307374</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q5">
-        <v>0.04713308072000001</v>
+        <v>0.09105149129266665</v>
       </c>
       <c r="R5">
-        <v>0.42419772648</v>
+        <v>0.546308947756</v>
       </c>
       <c r="S5">
-        <v>0.03363825169576384</v>
+        <v>0.07066792438130502</v>
       </c>
       <c r="T5">
-        <v>0.035597055462675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.03212</v>
-      </c>
-      <c r="H6">
-        <v>0.09636</v>
-      </c>
-      <c r="I6">
-        <v>0.04113232562835006</v>
-      </c>
-      <c r="J6">
-        <v>0.04113232562835006</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.296209</v>
-      </c>
-      <c r="N6">
-        <v>0.592418</v>
-      </c>
-      <c r="O6">
-        <v>0.1650813873325899</v>
-      </c>
-      <c r="P6">
-        <v>0.1164628759322743</v>
-      </c>
-      <c r="Q6">
-        <v>0.00951423308</v>
-      </c>
-      <c r="R6">
-        <v>0.05708539848</v>
-      </c>
-      <c r="S6">
-        <v>0.00679018137894387</v>
-      </c>
-      <c r="T6">
-        <v>0.004790388936460438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03212</v>
-      </c>
-      <c r="H7">
-        <v>0.09636</v>
-      </c>
-      <c r="I7">
-        <v>0.04113232562835006</v>
-      </c>
-      <c r="J7">
-        <v>0.04113232562835006</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.030706</v>
-      </c>
-      <c r="N7">
-        <v>0.09211799999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.01711288002536893</v>
-      </c>
-      <c r="P7">
-        <v>0.01810938763698814</v>
-      </c>
-      <c r="Q7">
-        <v>0.0009862767200000001</v>
-      </c>
-      <c r="R7">
-        <v>0.008876490479999999</v>
-      </c>
-      <c r="S7">
-        <v>0.0007038925536423622</v>
-      </c>
-      <c r="T7">
-        <v>0.000744881229214613</v>
+        <v>0.04934760075916873</v>
       </c>
     </row>
   </sheetData>
